--- a/testGrammarRC.xlsx
+++ b/testGrammarRC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="106">
   <si>
     <t>Sentence</t>
   </si>
@@ -25,15 +25,18 @@
     <t>Count</t>
   </si>
   <si>
+    <t>n2</t>
+  </si>
+  <si>
     <t>n1</t>
   </si>
   <si>
-    <t>n2</t>
-  </si>
-  <si>
     <t>['v1', 'n1']</t>
   </si>
   <si>
+    <t>['v2', 'n1']</t>
+  </si>
+  <si>
     <t>['v1', 'n2']</t>
   </si>
   <si>
@@ -43,136 +46,292 @@
     <t>['n1', 'v2', 'n1']</t>
   </si>
   <si>
+    <t>['n2', 'v2', 'n2']</t>
+  </si>
+  <si>
+    <t>['n2', 'v2', 'n1']</t>
+  </si>
+  <si>
+    <t>['n1', 'v2', 'n2']</t>
+  </si>
+  <si>
+    <t>['n2', 'v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['n1', 'v1', 'n2']</t>
+  </si>
+  <si>
     <t>['n2', 'v1', 'n1']</t>
   </si>
   <si>
-    <t>['n2', 'v2', 'n1']</t>
-  </si>
-  <si>
-    <t>['n1', 'v1', 'n2']</t>
-  </si>
-  <si>
-    <t>['n2', 'v2', 'n2']</t>
-  </si>
-  <si>
-    <t>['n1', 'v2', 'n2']</t>
-  </si>
-  <si>
-    <t>['n2', 'v1', 'n2']</t>
+    <t>['v2', 'n2', 'v2', 'n1']</t>
+  </si>
+  <si>
+    <t>['v2', 'n1', 'v1', 'n1']</t>
+  </si>
+  <si>
+    <t>['v1', 'n2', 'v1', 'n1']</t>
+  </si>
+  <si>
+    <t>['v1', 'n1', 'v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['v1', 'n2', 'v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['n1', 'v1', 'n1', 'v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['n1', 'v2', 'n2', 'v1', 'n1']</t>
+  </si>
+  <si>
+    <t>['n1', 'v2', 'n1', 'v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['n1', 'v1', 'n2', 'v2', 'n1']</t>
+  </si>
+  <si>
+    <t>['n2', 'v1', 'n2', 'v1', 'n1']</t>
+  </si>
+  <si>
+    <t>['n1', 'v1', 'n2', 'v1', 'n1']</t>
+  </si>
+  <si>
+    <t>['n1', 'v2', 'n2', 'v2', 'n1']</t>
+  </si>
+  <si>
+    <t>['n1', 'v1', 'n2', 'v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['n2', 'v1', 'n2', 'v2', 'n1']</t>
+  </si>
+  <si>
+    <t>['n2', 'v2', 'n1', 'v1', 'n1']</t>
+  </si>
+  <si>
+    <t>['n1', 'v2', 'n1', 'v1', 'n1']</t>
+  </si>
+  <si>
+    <t>['n2', 'v1', 'n2', 'v1', 'n2']</t>
   </si>
   <si>
     <t>['n2', 'v1', 'n1', 'v1', 'n2']</t>
   </si>
   <si>
-    <t>['n1', 'v1', 'n1', 'v1', 'n2']</t>
-  </si>
-  <si>
-    <t>['n2', 'v1', 'n1', 'v1', 'n1']</t>
-  </si>
-  <si>
-    <t>['n1', 'v1', 'n2', 'v1', 'n1']</t>
-  </si>
-  <si>
-    <t>['n1', 'v2', 'n1', 'v1', 'n1']</t>
-  </si>
-  <si>
-    <t>['n1', 'v2', 'n1', 'v1', 'n2']</t>
-  </si>
-  <si>
-    <t>['n2', 'v1', 'n1', 'v2', 'n2']</t>
-  </si>
-  <si>
-    <t>['v1', 'n1', 'v2', 'n1', 'v1', 'n2']</t>
+    <t>['n2', 'v2', 'n2', 'v2', 'n1']</t>
+  </si>
+  <si>
+    <t>['n1', 'v2', 'n2', 'v2', 'n2']</t>
+  </si>
+  <si>
+    <t>['v2', 'n1', 'v1', 'n2', 'v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['v1', 'n2', 'v2', 'n1', 'v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['v1', 'n1', 'v1', 'n2', 'v2', 'n2']</t>
+  </si>
+  <si>
+    <t>['n2', 'v2', 'n2', 'v2', 'n1', 'v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['n1', 'v2', 'n2', 'v2', 'n2', 'v2', 'n1']</t>
+  </si>
+  <si>
+    <t>['n2', 'v2', 'n1', 'v1', 'n2', 'v1', 'n2']</t>
   </si>
   <si>
     <t>['n2', 'v1', 'n1', 'v2', 'n1', 'v1', 'n2']</t>
   </si>
   <si>
-    <t>['n2', 'v2', 'n2', 'v1', 'n2', 'v1', 'n2']</t>
-  </si>
-  <si>
-    <t>['n2', 'v2', 'n2', 'v2', 'n1', 'v2', 'n2']</t>
-  </si>
-  <si>
-    <t>['n1', 'v1', 'n2', 'v1', 'n1', 'v1', 'n2']</t>
-  </si>
-  <si>
-    <t>['n2', 'v1', 'n1', 'v2', 'n1', 'v1', 'n1']</t>
+    <t>['n1', 'v1', 'n1', 'v1', 'n2', 'v1', 'n1']</t>
+  </si>
+  <si>
+    <t>['n1', 'v1', 'n1', 'v1', 'n2', 'v2', 'n2']</t>
+  </si>
+  <si>
+    <t>['n1', 'v1', 'n2', 'v1', 'n2', 'v1', 'n1']</t>
+  </si>
+  <si>
+    <t>['n1', 'v1', 'n1', 'v1', 'n2', 'v2', 'n1']</t>
+  </si>
+  <si>
+    <t>['n1', 'v2', 'n1', 'v2', 'n1', 'v1', 'n1']</t>
+  </si>
+  <si>
+    <t>['n2', 'v1', 'n1', 'v1', 'n1', 'v2', 'n1']</t>
+  </si>
+  <si>
+    <t>['n2', 'v1', 'n2', 'v1', 'n1', 'v1', 'n1']</t>
+  </si>
+  <si>
+    <t>['n2', 'v2', 'n2', 'v1', 'n2', 'v2', 'n1']</t>
+  </si>
+  <si>
+    <t>['n1', 'v2', 'n1', 'v1', 'n2', 'v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['n2', 'v1', 'n2', 'v2', 'n1', 'v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['n1', 'v2', 'n2', 'v1', 'n1', 'v2', 'n1']</t>
+  </si>
+  <si>
+    <t>['n2', 'v1', 'n2', 'v2', 'n1', 'v1', 'n1']</t>
+  </si>
+  <si>
+    <t>['n2', 'v1', 'n1', 'v1', 'n1', 'v2', 'n2']</t>
   </si>
   <si>
     <t>['n1', ['v1', 'n1']]</t>
   </si>
   <si>
-    <t>[['n1', 'v2'], 'n1']</t>
+    <t>[['n1', 'v1'], 'n1']</t>
+  </si>
+  <si>
+    <t>['n1', ['v2', 'n1']]</t>
+  </si>
+  <si>
+    <t>[['n2', 'v2'], 'n2']</t>
+  </si>
+  <si>
+    <t>['n2', ['v2', 'n1']]</t>
+  </si>
+  <si>
+    <t>[['n1', 'v2'], 'n2']</t>
+  </si>
+  <si>
+    <t>['n2', ['v1', 'n2']]</t>
+  </si>
+  <si>
+    <t>['n1', ['v1', 'n2']]</t>
   </si>
   <si>
     <t>['n2', ['v1', 'n1']]</t>
   </si>
   <si>
-    <t>[['n1', 'v1'], 'n1']</t>
-  </si>
-  <si>
-    <t>[['n2', 'v2'], 'n1']</t>
-  </si>
-  <si>
-    <t>[['n1', 'v1'], 'n2']</t>
-  </si>
-  <si>
-    <t>[['n2', 'v1'], 'n1']</t>
-  </si>
-  <si>
-    <t>['n1', ['v1', 'n2']]</t>
-  </si>
-  <si>
-    <t>[['n2', 'v2'], 'n2']</t>
-  </si>
-  <si>
-    <t>[['n1', 'v2'], 'n2']</t>
-  </si>
-  <si>
-    <t>[['n2', 'v1'], 'n2']</t>
-  </si>
-  <si>
-    <t>['n2', ['v1', ['n1', ['v1', 'n2']]]]</t>
-  </si>
-  <si>
-    <t>[['n1', 'v1'], ['n1', ['v1', 'n2']]]</t>
-  </si>
-  <si>
-    <t>[['n2', 'v1'], [['n1', 'v1'], 'n1']]</t>
-  </si>
-  <si>
-    <t>[[['n1', 'v1'], ['n2', 'v1']], 'n1']</t>
-  </si>
-  <si>
-    <t>[['n1', ['v1', 'n1']], ['v1', 'n2']]</t>
-  </si>
-  <si>
-    <t>[[['n1', 'v2'], 'n1'], ['v1', 'n1']]</t>
-  </si>
-  <si>
-    <t>[[[['n1', 'v2'], 'n1'], 'v1'], 'n2']</t>
-  </si>
-  <si>
-    <t>[[['n2', 'v1'], ['n1', 'v2']], 'n2']</t>
-  </si>
-  <si>
-    <t>['v1', [['n1', 'v2'], [['n1', 'v1'], 'n2']]]</t>
-  </si>
-  <si>
-    <t>['n2', ['v1', [['n1', 'v2'], [['n1', 'v1'], 'n2']]]]</t>
-  </si>
-  <si>
-    <t>[[['n2', 'v2'], [['n2', 'v1'], 'n2']], ['v1', 'n2']]</t>
-  </si>
-  <si>
-    <t>[[[[['n2', 'v2'], 'n2'], 'v2'], ['n1', 'v2']], 'n2']</t>
-  </si>
-  <si>
-    <t>[['n1', 'v1'], ['n2', ['v1', ['n1', ['v1', 'n2']]]]]</t>
-  </si>
-  <si>
-    <t>[['n2', ['v1', [['n1', 'v2'], ['n1', 'v1']]]], 'n1']</t>
+    <t>[[['v2', 'n2'], 'v2'], 'n1']</t>
+  </si>
+  <si>
+    <t>[['v2', ['n1', 'v1']], 'n1']</t>
+  </si>
+  <si>
+    <t>[['v1', ['n2', 'v1']], 'n1']</t>
+  </si>
+  <si>
+    <t>[['v1', ['n1', 'v1']], 'n2']</t>
+  </si>
+  <si>
+    <t>[['v1', ['n2', 'v1']], 'n2']</t>
+  </si>
+  <si>
+    <t>[['n1', [['v1', 'n1'], 'v1']], 'n2']</t>
+  </si>
+  <si>
+    <t>[[[['n1', 'v2'], 'n2'], 'v1'], 'n1']</t>
+  </si>
+  <si>
+    <t>[['n1', ['v2', ['n1', 'v1']]], 'n2']</t>
+  </si>
+  <si>
+    <t>[['n1', ['v1', ['n2', 'v2']]], 'n1']</t>
+  </si>
+  <si>
+    <t>['n2', [['v1', ['n2', 'v1']], 'n1']]</t>
+  </si>
+  <si>
+    <t>[[['n1', 'v2'], ['n2', 'v1']], 'n1']</t>
+  </si>
+  <si>
+    <t>['n1', [['v1', ['n2', 'v1']], 'n1']]</t>
+  </si>
+  <si>
+    <t>[[['n1', 'v2'], 'n2'], ['v2', 'n1']]</t>
+  </si>
+  <si>
+    <t>['n1', [['v1', ['n2', 'v1']], 'n2']]</t>
+  </si>
+  <si>
+    <t>[['n2', ['v1', ['n2', 'v2']]], 'n1']</t>
+  </si>
+  <si>
+    <t>['n2', [['v2', ['n1', 'v1']], 'n1']]</t>
+  </si>
+  <si>
+    <t>['n1', [['v2', ['n1', 'v1']], 'n1']]</t>
+  </si>
+  <si>
+    <t>['n2', [['v1', ['n2', 'v1']], 'n2']]</t>
+  </si>
+  <si>
+    <t>['n2', [['v1', ['n1', 'v1']], 'n2']]</t>
+  </si>
+  <si>
+    <t>['n2', [[['v2', 'n2'], 'v2'], 'n1']]</t>
+  </si>
+  <si>
+    <t>[[[['n1', 'v2'], 'n2'], 'v2'], 'n2']</t>
+  </si>
+  <si>
+    <t>['v2', ['n1', [['v1', ['n2', 'v1']], 'n2']]]</t>
+  </si>
+  <si>
+    <t>[['v1', ['n2', ['v2', ['n1', 'v1']]]], 'n2']</t>
+  </si>
+  <si>
+    <t>[['v1', ['n1', ['v1', ['n2', 'v2']]]], 'n2']</t>
+  </si>
+  <si>
+    <t>[['n2', 'v2'], ['n2', ['v2', ['n1', ['v1', 'n2']]]]]</t>
+  </si>
+  <si>
+    <t>[[[['n1', 'v2'], 'n2'], 'v2'], ['n2', ['v2', 'n1']]]</t>
+  </si>
+  <si>
+    <t>['n2', ['v2', ['n1', [['v1', ['n2', 'v1']], 'n2']]]]</t>
+  </si>
+  <si>
+    <t>[[['n2', ['v1', 'n1']], ['v2', ['n1', 'v1']]], 'n2']</t>
+  </si>
+  <si>
+    <t>[['n1', ['v1', ['n1', ['v1', 'n2']]]], ['v1', 'n1']]</t>
+  </si>
+  <si>
+    <t>['n1', [['v1', ['n1', ['v1', ['n2', 'v2']]]], 'n2']]</t>
+  </si>
+  <si>
+    <t>[[[[['n1', ['v1', 'n2']], 'v1'], 'n2'], 'v1'], 'n1']</t>
+  </si>
+  <si>
+    <t>[[[['n1', [['v1', 'n1'], 'v1']], 'n2'], 'v2'], 'n1']</t>
+  </si>
+  <si>
+    <t>[['n1', ['v2', ['n1', ['v2', ['n1', 'v1']]]]], 'n1']</t>
+  </si>
+  <si>
+    <t>[['n2', ['v1', ['n1', ['v1', ['n1', 'v2']]]]], 'n1']</t>
+  </si>
+  <si>
+    <t>[['n2', ['v1', ['n2', ['v1', ['n1', 'v1']]]]], 'n1']</t>
+  </si>
+  <si>
+    <t>[['n2', 'v2'], [['n2', ['v1', ['n2', 'v2']]], 'n1']]</t>
+  </si>
+  <si>
+    <t>[[[['n1', ['v2', ['n1', 'v1']]], 'n2'], 'v1'], 'n2']</t>
+  </si>
+  <si>
+    <t>['n2', [['v1', ['n2', ['v2', ['n1', 'v1']]]], 'n2']]</t>
+  </si>
+  <si>
+    <t>[[[[[['n1', 'v2'], 'n2'], 'v1'], 'n1'], 'v2'], 'n1']</t>
+  </si>
+  <si>
+    <t>[[[[['n2', ['v1', 'n2']], 'v2'], 'n1'], 'v1'], 'n1']</t>
+  </si>
+  <si>
+    <t>[['n2', ['v1', ['n1', ['v1', ['n1', 'v2']]]]], 'n2']</t>
   </si>
 </sst>
 </file>
@@ -530,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,7 +745,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -600,7 +759,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -611,10 +770,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -625,10 +784,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D7">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -636,13 +795,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -650,13 +809,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D9">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -667,10 +826,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D10">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -681,10 +840,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D11">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -692,13 +851,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D12">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -706,13 +865,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D13">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -720,13 +879,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D14">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -734,13 +893,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D15">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -748,13 +907,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D16">
-        <v>76</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -762,13 +921,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -776,13 +935,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -790,13 +949,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -804,13 +963,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -818,13 +977,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -832,13 +991,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -846,13 +1005,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -860,13 +1019,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -874,13 +1033,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -888,10 +1047,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -902,13 +1061,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -916,13 +1075,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -930,13 +1089,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -944,12 +1103,376 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
         <v>52</v>
       </c>
-      <c r="D30">
+      <c r="C53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56">
         <v>1</v>
       </c>
     </row>

--- a/testGrammarRC.xlsx
+++ b/testGrammarRC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="258">
   <si>
     <t>Sentence</t>
   </si>
@@ -25,115 +25,769 @@
     <t>Count</t>
   </si>
   <si>
-    <t>['n1', 'v1']</t>
+    <t>n1</t>
+  </si>
+  <si>
+    <t>n5</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>n4</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>['v5', 'n3']</t>
+  </si>
+  <si>
+    <t>['v2', 'n2']</t>
+  </si>
+  <si>
+    <t>['v2', 'n3']</t>
+  </si>
+  <si>
+    <t>['v3', 'n1']</t>
+  </si>
+  <si>
+    <t>['v1', 'n5']</t>
+  </si>
+  <si>
+    <t>['v3', 'n4']</t>
+  </si>
+  <si>
+    <t>['v4', 'n4']</t>
   </si>
   <si>
     <t>['v1', 'n1']</t>
   </si>
   <si>
-    <t>['d1', 'n1', 'v1']</t>
+    <t>['v2', 'n4']</t>
+  </si>
+  <si>
+    <t>['v1', 'n3']</t>
+  </si>
+  <si>
+    <t>['v4', 'n5']</t>
+  </si>
+  <si>
+    <t>['v2', 'n5']</t>
+  </si>
+  <si>
+    <t>['v1', 'n4']</t>
+  </si>
+  <si>
+    <t>['v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['v5', 'n1']</t>
+  </si>
+  <si>
+    <t>['v5', 'n4']</t>
+  </si>
+  <si>
+    <t>['v2', 'n1']</t>
+  </si>
+  <si>
+    <t>['n5', 'v4', 'n2']</t>
+  </si>
+  <si>
+    <t>['n1', 'v4', 'n2']</t>
+  </si>
+  <si>
+    <t>['n3', 'v5', 'n5']</t>
+  </si>
+  <si>
+    <t>['n4', 'v1', 'n3']</t>
+  </si>
+  <si>
+    <t>['n4', 'v3', 'n2']</t>
+  </si>
+  <si>
+    <t>['n5', 'v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['n2', 'v1', 'n4']</t>
+  </si>
+  <si>
+    <t>['n2', 'v5', 'n3']</t>
+  </si>
+  <si>
+    <t>['n4', 'v5', 'n3']</t>
+  </si>
+  <si>
+    <t>['n3', 'v2', 'n1']</t>
+  </si>
+  <si>
+    <t>['n3', 'v3', 'n5']</t>
+  </si>
+  <si>
+    <t>['n5', 'v1', 'n4']</t>
+  </si>
+  <si>
+    <t>['n5', 'v5', 'n1']</t>
+  </si>
+  <si>
+    <t>['n2', 'v3', 'n5']</t>
+  </si>
+  <si>
+    <t>['n3', 'v4', 'n4']</t>
+  </si>
+  <si>
+    <t>['n4', 'v1', 'n4']</t>
+  </si>
+  <si>
+    <t>['n5', 'v4', 'n5']</t>
+  </si>
+  <si>
+    <t>['n2', 'v1', 'n5']</t>
+  </si>
+  <si>
+    <t>['n5', 'v5', 'n4']</t>
   </si>
   <si>
     <t>['n1', 'v1', 'n1']</t>
   </si>
   <si>
-    <t>['d1', 'a1', 'n1', 'v1']</t>
-  </si>
-  <si>
-    <t>['n1', 'v1', 'd1', 'n1']</t>
-  </si>
-  <si>
-    <t>['v1', 'r1', 'n1', 'v1']</t>
-  </si>
-  <si>
-    <t>['v1', 'p1', 'd1', 'n1']</t>
-  </si>
-  <si>
-    <t>['n1', 'v1', 'r1', 'n1', 'v1']</t>
-  </si>
-  <si>
-    <t>['n1', 'v1', 'p1', 'd1', 'n1']</t>
-  </si>
-  <si>
-    <t>['d1', 'a1', 'a1', 'n1', 'v1']</t>
-  </si>
-  <si>
-    <t>['d1', 'n1', 'v1', 'r1', 'n1', 'v1']</t>
-  </si>
-  <si>
-    <t>['n1', 'p1', 'd1', 'a1', 'a1', 'n1', 'v1']</t>
-  </si>
-  <si>
-    <t>['a1', 'n1', 'p1', 'd1', 'a1', 'a1', 'n1', 'v1']</t>
-  </si>
-  <si>
-    <t>['d1', 'a1', 'n1', 'p1', 'd1', 'a1', 'a1', 'n1', 'v1']</t>
-  </si>
-  <si>
-    <t>['d1', 'a1', 'a1', 'a1', 'a1', 'a1', 'a1', 'n1', 'v1', 'r1', 'd1', 'a1', 'n1', 'v1']</t>
-  </si>
-  <si>
-    <t>['d1', 'a1', 'n1', 'v1', 'd1', 'a1', 'a1', 'a1', 'a1', 'a1', 'n1', 'p1', 'n1', 'p1', 'd1', 'n1']</t>
-  </si>
-  <si>
-    <t>['d1', 'a1', 'a1', 'n1', 'p1', 'd1', 'a1', 'a1', 'a1', 'a1', 'a1', 'a1', 'n1', 'v1', 'r1', 'd1', 'n1', 'v1']</t>
-  </si>
-  <si>
-    <t>['d1', ['n1', 'v1']]</t>
+    <t>['n3', 'v3', 'n3']</t>
+  </si>
+  <si>
+    <t>['n3', 'v5', 'n3']</t>
+  </si>
+  <si>
+    <t>['n1', 'v1', 'n5']</t>
+  </si>
+  <si>
+    <t>['n1', 'v5', 'n4']</t>
+  </si>
+  <si>
+    <t>['n3', 'v2', 'n2']</t>
+  </si>
+  <si>
+    <t>['n3', 'v2', 'n5']</t>
+  </si>
+  <si>
+    <t>['n3', 'v3', 'n4']</t>
+  </si>
+  <si>
+    <t>['n5', 'v1', 'n3']</t>
+  </si>
+  <si>
+    <t>['n1', 'v4', 'n4']</t>
+  </si>
+  <si>
+    <t>['n3', 'v2', 'n4']</t>
+  </si>
+  <si>
+    <t>['n2', 'v5', 'n2']</t>
+  </si>
+  <si>
+    <t>['n5', 'v5', 'n5']</t>
+  </si>
+  <si>
+    <t>['n2', 'v2', 'n3']</t>
+  </si>
+  <si>
+    <t>['n1', 'v5', 'n1']</t>
+  </si>
+  <si>
+    <t>['n4', 'v5', 'n5']</t>
+  </si>
+  <si>
+    <t>['n3', 'v4', 'n5']</t>
+  </si>
+  <si>
+    <t>['n2', 'v2', 'n1']</t>
+  </si>
+  <si>
+    <t>['n1', 'v5', 'n2']</t>
+  </si>
+  <si>
+    <t>['n5', 'v1', 'n1']</t>
+  </si>
+  <si>
+    <t>['n2', 'v5', 'n4']</t>
+  </si>
+  <si>
+    <t>['n5', 'v5', 'n2']</t>
+  </si>
+  <si>
+    <t>['n2', 'v5', 'n1']</t>
+  </si>
+  <si>
+    <t>['n4', 'v2', 'n4']</t>
+  </si>
+  <si>
+    <t>['n3', 'v5', 'n4']</t>
+  </si>
+  <si>
+    <t>['n1', 'v4', 'n3']</t>
+  </si>
+  <si>
+    <t>['n1', 'v3', 'n4']</t>
+  </si>
+  <si>
+    <t>['n3', 'v5', 'n1']</t>
+  </si>
+  <si>
+    <t>['n1', 'v1', 'n3']</t>
+  </si>
+  <si>
+    <t>['n2', 'v4', 'n5']</t>
+  </si>
+  <si>
+    <t>['n5', 'v3', 'n5']</t>
+  </si>
+  <si>
+    <t>['n3', 'v3', 'n2']</t>
+  </si>
+  <si>
+    <t>['n4', 'v2', 'n3']</t>
+  </si>
+  <si>
+    <t>['n5', 'v4', 'n1']</t>
+  </si>
+  <si>
+    <t>['n3', 'v1', 'n3']</t>
+  </si>
+  <si>
+    <t>['n4', 'v2', 'n2']</t>
+  </si>
+  <si>
+    <t>['n2', 'v4', 'n3']</t>
+  </si>
+  <si>
+    <t>['n3', 'v4', 'n1']</t>
+  </si>
+  <si>
+    <t>['n4', 'v1', 'n5']</t>
+  </si>
+  <si>
+    <t>['n3', 'v1', 'n5']</t>
+  </si>
+  <si>
+    <t>['n2', 'v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['n4', 'v3', 'n5']</t>
+  </si>
+  <si>
+    <t>['n2', 'v4', 'n1']</t>
+  </si>
+  <si>
+    <t>['n1', 'v3', 'n2']</t>
+  </si>
+  <si>
+    <t>['n1', 'v1', 'n4']</t>
+  </si>
+  <si>
+    <t>['n1', 'v2', 'n4']</t>
+  </si>
+  <si>
+    <t>['n2', 'v4', 'n2']</t>
+  </si>
+  <si>
+    <t>['n3', 'v3', 'n1']</t>
+  </si>
+  <si>
+    <t>['n5', 'v2', 'n1']</t>
+  </si>
+  <si>
+    <t>['n4', 'v4', 'n2']</t>
+  </si>
+  <si>
+    <t>['n1', 'v2', 'n1']</t>
+  </si>
+  <si>
+    <t>['n4', 'v4', 'n5']</t>
+  </si>
+  <si>
+    <t>['n2', 'v3', 'n3']</t>
+  </si>
+  <si>
+    <t>['n3', 'v1', 'n1']</t>
+  </si>
+  <si>
+    <t>['n3', 'v2', 'n3']</t>
+  </si>
+  <si>
+    <t>['n5', 'v5', 'n3']</t>
+  </si>
+  <si>
+    <t>['n4', 'v2', 'n1']</t>
+  </si>
+  <si>
+    <t>['n3', 'v4', 'n3']</t>
+  </si>
+  <si>
+    <t>['n3', 'v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['n4', 'v3', 'n4']</t>
+  </si>
+  <si>
+    <t>['n2', 'v3', 'n1']</t>
+  </si>
+  <si>
+    <t>['n1', 'v3', 'n3']</t>
+  </si>
+  <si>
+    <t>['n5', 'v3', 'n1']</t>
+  </si>
+  <si>
+    <t>['n5', 'v1', 'n5']</t>
+  </si>
+  <si>
+    <t>['n3', 'v4', 'n2']</t>
+  </si>
+  <si>
+    <t>['n5', 'v4', 'n3']</t>
+  </si>
+  <si>
+    <t>['n2', 'v2', 'n5']</t>
+  </si>
+  <si>
+    <t>['n2', 'v5', 'n5']</t>
+  </si>
+  <si>
+    <t>['n5', 'v3', 'n4']</t>
+  </si>
+  <si>
+    <t>['n4', 'v3', 'n3']</t>
+  </si>
+  <si>
+    <t>['n2', 'v3', 'n4']</t>
+  </si>
+  <si>
+    <t>['n2', 'v2', 'n2']</t>
+  </si>
+  <si>
+    <t>['n2', 'v3', 'n2']</t>
+  </si>
+  <si>
+    <t>['n4', 'v5', 'n2']</t>
+  </si>
+  <si>
+    <t>['n2', 'v2', 'n4']</t>
+  </si>
+  <si>
+    <t>['n1', 'v2', 'n2']</t>
+  </si>
+  <si>
+    <t>['n1', 'v3', 'n5']</t>
+  </si>
+  <si>
+    <t>['n4', 'v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['n4', 'v5', 'n4']</t>
+  </si>
+  <si>
+    <t>['n5', 'v2', 'n5']</t>
+  </si>
+  <si>
+    <t>['n1', 'v3', 'n1']</t>
+  </si>
+  <si>
+    <t>['n5', 'v2', 'n4']</t>
+  </si>
+  <si>
+    <t>['n4', 'v3', 'n1']</t>
+  </si>
+  <si>
+    <t>['n4', 'v2', 'n5']</t>
+  </si>
+  <si>
+    <t>['n1', 'v4', 'n1']</t>
+  </si>
+  <si>
+    <t>['n4', 'v1', 'n1']</t>
+  </si>
+  <si>
+    <t>['n4', 'v4', 'n1']</t>
+  </si>
+  <si>
+    <t>['n2', 'v1', 'n3']</t>
+  </si>
+  <si>
+    <t>['n1', 'v2', 'n5']</t>
+  </si>
+  <si>
+    <t>['n1', 'v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['n4', 'v4', 'n4']</t>
+  </si>
+  <si>
+    <t>['n5', 'v3', 'n2']</t>
+  </si>
+  <si>
+    <t>['n1', 'v5', 'n3']</t>
+  </si>
+  <si>
+    <t>[['n5', 'v4'], 'n2']</t>
+  </si>
+  <si>
+    <t>[['n1', 'v4'], 'n2']</t>
+  </si>
+  <si>
+    <t>[['n3', 'v5'], 'n5']</t>
+  </si>
+  <si>
+    <t>[['n4', 'v1'], 'n3']</t>
+  </si>
+  <si>
+    <t>[['n4', 'v3'], 'n2']</t>
+  </si>
+  <si>
+    <t>['n5', ['v1', 'n2']]</t>
+  </si>
+  <si>
+    <t>[['n2', 'v1'], 'n4']</t>
+  </si>
+  <si>
+    <t>[['n2', 'v5'], 'n3']</t>
+  </si>
+  <si>
+    <t>[['n4', 'v5'], 'n3']</t>
+  </si>
+  <si>
+    <t>[['n3', 'v2'], 'n1']</t>
+  </si>
+  <si>
+    <t>[['n3', 'v3'], 'n5']</t>
+  </si>
+  <si>
+    <t>[['n5', 'v1'], 'n4']</t>
+  </si>
+  <si>
+    <t>[['n5', 'v5'], 'n1']</t>
+  </si>
+  <si>
+    <t>['n2', ['v3', 'n5']]</t>
+  </si>
+  <si>
+    <t>[['n3', 'v4'], 'n4']</t>
+  </si>
+  <si>
+    <t>['n4', ['v1', 'n4']]</t>
+  </si>
+  <si>
+    <t>['n5', ['v4', 'n5']]</t>
+  </si>
+  <si>
+    <t>['n3', ['v4', 'n4']]</t>
+  </si>
+  <si>
+    <t>['n2', ['v1', 'n5']]</t>
+  </si>
+  <si>
+    <t>['n5', ['v5', 'n4']]</t>
   </si>
   <si>
     <t>['n1', ['v1', 'n1']]</t>
   </si>
   <si>
-    <t>['d1', ['a1', ['n1', 'v1']]]</t>
-  </si>
-  <si>
-    <t>['n1', ['v1', ['d1', 'n1']]]</t>
-  </si>
-  <si>
-    <t>[['v1', ['r1', 'n1']], 'v1']</t>
-  </si>
-  <si>
-    <t>[['v1', ['p1', 'd1']], 'n1']</t>
-  </si>
-  <si>
-    <t>['n1', [['v1', ['r1', 'n1']], 'v1']]</t>
-  </si>
-  <si>
-    <t>['n1', [['v1', ['p1', 'd1']], 'n1']]</t>
-  </si>
-  <si>
-    <t>['d1', ['a1', [['a1', 'n1'], 'v1']]]</t>
-  </si>
-  <si>
-    <t>['d1', ['a1', ['a1', ['n1', 'v1']]]]</t>
-  </si>
-  <si>
-    <t>[['d1', 'a1'], [['a1', 'n1'], 'v1']]</t>
-  </si>
-  <si>
-    <t>['d1', ['n1', [['v1', ['r1', 'n1']], 'v1']]]</t>
-  </si>
-  <si>
-    <t>[['d1', ['n1', ['v1', ['r1', 'n1']]]], 'v1']</t>
-  </si>
-  <si>
-    <t>[[['n1', [[['p1', 'd1'], 'a1'], 'a1']], 'n1'], 'v1']</t>
-  </si>
-  <si>
-    <t>['a1', [[['n1', [[['p1', 'd1'], 'a1'], 'a1']], 'n1'], 'v1']]</t>
-  </si>
-  <si>
-    <t>['d1', ['a1', [[['n1', [[['p1', 'd1'], 'a1'], 'a1']], 'n1'], 'v1']]]</t>
-  </si>
-  <si>
-    <t>[[[[[[[[[[['d1', ['a1', 'a1']], 'a1'], 'a1'], 'a1'], 'a1'], 'n1'], 'v1'], 'r1'], 'd1'], 'a1'], ['n1', 'v1']]</t>
-  </si>
-  <si>
-    <t>[[[[[[[[[[[['d1', [['a1', ['n1', 'v1']], 'd1']], 'a1'], 'a1'], 'a1'], 'a1'], 'a1'], 'n1'], 'p1'], 'n1'], 'p1'], 'd1'], 'n1']</t>
-  </si>
-  <si>
-    <t>[[[[[[[[[[[[['d1', ['a1', ['a1', 'n1']]], 'p1'], 'd1'], 'a1'], 'a1'], 'a1'], 'a1'], 'a1'], 'a1'], 'n1'], 'v1'], ['r1', 'd1']], ['n1', 'v1']]</t>
+    <t>[['n3', 'v3'], 'n3']</t>
+  </si>
+  <si>
+    <t>['n3', ['v5', 'n3']]</t>
+  </si>
+  <si>
+    <t>['n1', ['v1', 'n5']]</t>
+  </si>
+  <si>
+    <t>[['n1', 'v5'], 'n4']</t>
+  </si>
+  <si>
+    <t>['n3', ['v2', 'n2']]</t>
+  </si>
+  <si>
+    <t>[['n3', 'v2'], 'n5']</t>
+  </si>
+  <si>
+    <t>['n3', ['v3', 'n4']]</t>
+  </si>
+  <si>
+    <t>[['n5', 'v1'], 'n3']</t>
+  </si>
+  <si>
+    <t>[['n1', 'v4'], 'n4']</t>
+  </si>
+  <si>
+    <t>[['n3', 'v2'], 'n4']</t>
+  </si>
+  <si>
+    <t>[['n2', 'v5'], 'n2']</t>
+  </si>
+  <si>
+    <t>[['n5', 'v5'], 'n5']</t>
+  </si>
+  <si>
+    <t>[['n2', 'v2'], 'n3']</t>
+  </si>
+  <si>
+    <t>['n1', ['v5', 'n1']]</t>
+  </si>
+  <si>
+    <t>[['n4', 'v5'], 'n5']</t>
+  </si>
+  <si>
+    <t>['n3', ['v4', 'n5']]</t>
+  </si>
+  <si>
+    <t>[['n2', 'v2'], 'n1']</t>
+  </si>
+  <si>
+    <t>[['n1', 'v5'], 'n2']</t>
+  </si>
+  <si>
+    <t>['n5', ['v1', 'n1']]</t>
+  </si>
+  <si>
+    <t>[['n2', 'v5'], 'n4']</t>
+  </si>
+  <si>
+    <t>[['n5', 'v5'], 'n2']</t>
+  </si>
+  <si>
+    <t>['n2', ['v5', 'n1']]</t>
+  </si>
+  <si>
+    <t>['n4', ['v2', 'n4']]</t>
+  </si>
+  <si>
+    <t>[['n3', 'v5'], 'n4']</t>
+  </si>
+  <si>
+    <t>['n1', ['v4', 'n3']]</t>
+  </si>
+  <si>
+    <t>['n1', ['v3', 'n4']]</t>
+  </si>
+  <si>
+    <t>['n3', ['v5', 'n1']]</t>
+  </si>
+  <si>
+    <t>['n1', ['v1', 'n3']]</t>
+  </si>
+  <si>
+    <t>['n2', ['v4', 'n5']]</t>
+  </si>
+  <si>
+    <t>[['n5', 'v3'], 'n5']</t>
+  </si>
+  <si>
+    <t>[['n3', 'v3'], 'n2']</t>
+  </si>
+  <si>
+    <t>[['n4', 'v2'], 'n3']</t>
+  </si>
+  <si>
+    <t>[['n5', 'v4'], 'n1']</t>
+  </si>
+  <si>
+    <t>[['n3', 'v1'], 'n3']</t>
+  </si>
+  <si>
+    <t>['n4', ['v2', 'n2']]</t>
+  </si>
+  <si>
+    <t>[['n2', 'v4'], 'n3']</t>
+  </si>
+  <si>
+    <t>[['n3', 'v4'], 'n1']</t>
+  </si>
+  <si>
+    <t>['n4', ['v1', 'n5']]</t>
+  </si>
+  <si>
+    <t>['n3', ['v1', 'n5']]</t>
+  </si>
+  <si>
+    <t>['n2', ['v1', 'n2']]</t>
+  </si>
+  <si>
+    <t>['n2', ['v5', 'n4']]</t>
+  </si>
+  <si>
+    <t>[['n4', 'v3'], 'n5']</t>
+  </si>
+  <si>
+    <t>[['n2', 'v4'], 'n1']</t>
+  </si>
+  <si>
+    <t>[['n1', 'v3'], 'n2']</t>
+  </si>
+  <si>
+    <t>['n1', ['v1', 'n4']]</t>
+  </si>
+  <si>
+    <t>['n4', ['v2', 'n3']]</t>
+  </si>
+  <si>
+    <t>[['n1', 'v2'], 'n4']</t>
+  </si>
+  <si>
+    <t>[['n2', 'v4'], 'n2']</t>
+  </si>
+  <si>
+    <t>[['n3', 'v3'], 'n1']</t>
+  </si>
+  <si>
+    <t>['n5', ['v2', 'n1']]</t>
+  </si>
+  <si>
+    <t>[['n4', 'v4'], 'n2']</t>
+  </si>
+  <si>
+    <t>['n1', ['v2', 'n1']]</t>
+  </si>
+  <si>
+    <t>['n1', ['v4', 'n4']]</t>
+  </si>
+  <si>
+    <t>[['n4', 'v4'], 'n5']</t>
+  </si>
+  <si>
+    <t>[['n2', 'v3'], 'n3']</t>
+  </si>
+  <si>
+    <t>['n3', ['v1', 'n1']]</t>
+  </si>
+  <si>
+    <t>['n3', ['v2', 'n3']]</t>
+  </si>
+  <si>
+    <t>[['n3', 'v4'], 'n5']</t>
+  </si>
+  <si>
+    <t>[['n5', 'v5'], 'n3']</t>
+  </si>
+  <si>
+    <t>[['n4', 'v2'], 'n1']</t>
+  </si>
+  <si>
+    <t>['n5', ['v5', 'n1']]</t>
+  </si>
+  <si>
+    <t>[['n3', 'v4'], 'n3']</t>
+  </si>
+  <si>
+    <t>['n3', ['v1', 'n2']]</t>
+  </si>
+  <si>
+    <t>['n4', ['v3', 'n4']]</t>
+  </si>
+  <si>
+    <t>['n2', ['v3', 'n1']]</t>
+  </si>
+  <si>
+    <t>[['n1', 'v3'], 'n3']</t>
+  </si>
+  <si>
+    <t>[['n5', 'v3'], 'n1']</t>
+  </si>
+  <si>
+    <t>['n5', ['v1', 'n5']]</t>
+  </si>
+  <si>
+    <t>[['n3', 'v4'], 'n2']</t>
+  </si>
+  <si>
+    <t>[['n5', 'v4'], 'n3']</t>
+  </si>
+  <si>
+    <t>['n2', ['v2', 'n5']]</t>
+  </si>
+  <si>
+    <t>[['n2', 'v5'], 'n5']</t>
+  </si>
+  <si>
+    <t>['n5', ['v3', 'n4']]</t>
+  </si>
+  <si>
+    <t>[['n4', 'v3'], 'n3']</t>
+  </si>
+  <si>
+    <t>['n2', ['v3', 'n4']]</t>
+  </si>
+  <si>
+    <t>['n2', ['v2', 'n2']]</t>
+  </si>
+  <si>
+    <t>[['n2', 'v3'], 'n2']</t>
+  </si>
+  <si>
+    <t>[['n4', 'v5'], 'n2']</t>
+  </si>
+  <si>
+    <t>['n2', ['v2', 'n4']]</t>
+  </si>
+  <si>
+    <t>['n1', ['v2', 'n2']]</t>
+  </si>
+  <si>
+    <t>[['n1', 'v3'], 'n5']</t>
+  </si>
+  <si>
+    <t>['n4', ['v1', 'n2']]</t>
+  </si>
+  <si>
+    <t>['n4', ['v5', 'n4']]</t>
+  </si>
+  <si>
+    <t>['n5', ['v2', 'n5']]</t>
+  </si>
+  <si>
+    <t>[['n1', 'v3'], 'n1']</t>
+  </si>
+  <si>
+    <t>[['n5', 'v2'], 'n4']</t>
+  </si>
+  <si>
+    <t>[['n4', 'v3'], 'n1']</t>
+  </si>
+  <si>
+    <t>[['n4', 'v2'], 'n5']</t>
+  </si>
+  <si>
+    <t>[['n1', 'v4'], 'n1']</t>
+  </si>
+  <si>
+    <t>['n4', ['v1', 'n1']]</t>
+  </si>
+  <si>
+    <t>[['n2', 'v5'], 'n1']</t>
+  </si>
+  <si>
+    <t>[['n4', 'v4'], 'n1']</t>
+  </si>
+  <si>
+    <t>[['n2', 'v1'], 'n3']</t>
+  </si>
+  <si>
+    <t>['n1', ['v2', 'n5']]</t>
+  </si>
+  <si>
+    <t>[['n1', 'v4'], 'n3']</t>
+  </si>
+  <si>
+    <t>['n1', ['v1', 'n2']]</t>
+  </si>
+  <si>
+    <t>['n4', ['v4', 'n4']]</t>
+  </si>
+  <si>
+    <t>[['n5', 'v3'], 'n2']</t>
+  </si>
+  <si>
+    <t>['n3', ['v2', 'n4']]</t>
+  </si>
+  <si>
+    <t>['n1', ['v5', 'n3']]</t>
   </si>
 </sst>
 </file>
@@ -491,7 +1145,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,7 +1173,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -533,7 +1187,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -544,10 +1198,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -558,10 +1212,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -572,10 +1226,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -586,10 +1240,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -600,7 +1254,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -614,10 +1268,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -628,7 +1282,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -642,10 +1296,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -656,10 +1310,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -667,10 +1321,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -681,10 +1335,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -695,10 +1349,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -709,10 +1363,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -723,10 +1377,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -737,10 +1391,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -751,10 +1405,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -765,10 +1419,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -779,10 +1433,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -793,12 +1447,1720 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>39</v>
       </c>
-      <c r="D22">
+      <c r="C38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" t="s">
+        <v>177</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" t="s">
+        <v>179</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" t="s">
+        <v>180</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" t="s">
+        <v>181</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" t="s">
+        <v>182</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" t="s">
+        <v>185</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" t="s">
+        <v>186</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" t="s">
+        <v>187</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" t="s">
+        <v>188</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" t="s">
+        <v>189</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" t="s">
+        <v>190</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" t="s">
+        <v>191</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" t="s">
+        <v>192</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="s">
+        <v>193</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" t="s">
+        <v>194</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" t="s">
+        <v>195</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" t="s">
+        <v>196</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" t="s">
+        <v>197</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>64</v>
+      </c>
+      <c r="C85" t="s">
+        <v>198</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>199</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>200</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>201</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>202</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" t="s">
+        <v>203</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>204</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" t="s">
+        <v>206</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
+        <v>207</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95" t="s">
+        <v>208</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
+        <v>209</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" t="s">
+        <v>210</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98" t="s">
+        <v>211</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99" t="s">
+        <v>212</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>97</v>
+      </c>
+      <c r="C100" t="s">
+        <v>213</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101" t="s">
+        <v>214</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>60</v>
+      </c>
+      <c r="C102" t="s">
+        <v>215</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>99</v>
+      </c>
+      <c r="C103" t="s">
+        <v>216</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>100</v>
+      </c>
+      <c r="C104" t="s">
+        <v>217</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" t="s">
+        <v>218</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>101</v>
+      </c>
+      <c r="C106" t="s">
+        <v>219</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>102</v>
+      </c>
+      <c r="C107" t="s">
+        <v>220</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>103</v>
+      </c>
+      <c r="C108" t="s">
+        <v>221</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>104</v>
+      </c>
+      <c r="C109" t="s">
+        <v>222</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>105</v>
+      </c>
+      <c r="C110" t="s">
+        <v>223</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>106</v>
+      </c>
+      <c r="C111" t="s">
+        <v>224</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>107</v>
+      </c>
+      <c r="C112" t="s">
+        <v>225</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>108</v>
+      </c>
+      <c r="C113" t="s">
+        <v>226</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>109</v>
+      </c>
+      <c r="C114" t="s">
+        <v>227</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>110</v>
+      </c>
+      <c r="C115" t="s">
+        <v>228</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>111</v>
+      </c>
+      <c r="C116" t="s">
+        <v>229</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>112</v>
+      </c>
+      <c r="C117" t="s">
+        <v>230</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>113</v>
+      </c>
+      <c r="C118" t="s">
+        <v>231</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>114</v>
+      </c>
+      <c r="C119" t="s">
+        <v>232</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>115</v>
+      </c>
+      <c r="C120" t="s">
+        <v>233</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>116</v>
+      </c>
+      <c r="C121" t="s">
+        <v>234</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>117</v>
+      </c>
+      <c r="C122" t="s">
+        <v>235</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>118</v>
+      </c>
+      <c r="C123" t="s">
+        <v>236</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>119</v>
+      </c>
+      <c r="C124" t="s">
+        <v>237</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>120</v>
+      </c>
+      <c r="C125" t="s">
+        <v>238</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>121</v>
+      </c>
+      <c r="C126" t="s">
+        <v>239</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>122</v>
+      </c>
+      <c r="C127" t="s">
+        <v>240</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>123</v>
+      </c>
+      <c r="C128" t="s">
+        <v>241</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>124</v>
+      </c>
+      <c r="C129" t="s">
+        <v>242</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>125</v>
+      </c>
+      <c r="C130" t="s">
+        <v>243</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>126</v>
+      </c>
+      <c r="C131" t="s">
+        <v>244</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>127</v>
+      </c>
+      <c r="C132" t="s">
+        <v>245</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>128</v>
+      </c>
+      <c r="C133" t="s">
+        <v>246</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>129</v>
+      </c>
+      <c r="C134" t="s">
+        <v>247</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>66</v>
+      </c>
+      <c r="C135" t="s">
+        <v>248</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>130</v>
+      </c>
+      <c r="C136" t="s">
+        <v>249</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>131</v>
+      </c>
+      <c r="C137" t="s">
+        <v>250</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>132</v>
+      </c>
+      <c r="C138" t="s">
+        <v>251</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>69</v>
+      </c>
+      <c r="C139" t="s">
+        <v>252</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>133</v>
+      </c>
+      <c r="C140" t="s">
+        <v>253</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>134</v>
+      </c>
+      <c r="C141" t="s">
+        <v>254</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>135</v>
+      </c>
+      <c r="C142" t="s">
+        <v>255</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>54</v>
+      </c>
+      <c r="C143" t="s">
+        <v>256</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>136</v>
+      </c>
+      <c r="C144" t="s">
+        <v>257</v>
+      </c>
+      <c r="D144">
         <v>1</v>
       </c>
     </row>

--- a/testGrammarRC.xlsx
+++ b/testGrammarRC.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjo1309\Documents\GitHub\Pablo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13826495-1AAC-4136-9440-9FD5AD864AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>Sentence</t>
   </si>
@@ -25,122 +31,158 @@
     <t>Count</t>
   </si>
   <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>['n2', 'v2']</t>
+  </si>
+  <si>
+    <t>['n1', 'v2']</t>
+  </si>
+  <si>
+    <t>['v2', 'n2']</t>
+  </si>
+  <si>
+    <t>['v2', 'n1']</t>
+  </si>
+  <si>
     <t>['n1', 'v1']</t>
   </si>
   <si>
     <t>['v1', 'n1']</t>
   </si>
   <si>
-    <t>['d1', 'n1', 'v1']</t>
+    <t>['v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['n1', 'n1', 'v2']</t>
+  </si>
+  <si>
+    <t>[['n1', 'n1'], 'v2']</t>
+  </si>
+  <si>
+    <t>['n2', 'n1', 'v1']</t>
+  </si>
+  <si>
+    <t>[['n2', 'n1'], 'v1']</t>
+  </si>
+  <si>
+    <t>['n1', ['n1', 'v2']]</t>
+  </si>
+  <si>
+    <t>['n1', 'n2', 'v2']</t>
+  </si>
+  <si>
+    <t>[['n1', 'n2'], 'v2']</t>
+  </si>
+  <si>
+    <t>['n2', 'v2', 'n1']</t>
+  </si>
+  <si>
+    <t>[['n2', 'v2'], 'n1']</t>
+  </si>
+  <si>
+    <t>['n1', 'n1', 'v1']</t>
+  </si>
+  <si>
+    <t>['n1', ['n1', 'v1']]</t>
+  </si>
+  <si>
+    <t>['n2', 'n1', 'v2']</t>
+  </si>
+  <si>
+    <t>['n2', ['n1', 'v2']]</t>
+  </si>
+  <si>
+    <t>['n2', ['v2', 'n1']]</t>
+  </si>
+  <si>
+    <t>['n1', 'v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['n1', ['v1', 'n2']]</t>
+  </si>
+  <si>
+    <t>['n2', 'v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['n2', ['v1', 'n2']]</t>
+  </si>
+  <si>
+    <t>['n2', 'v2', 'n2']</t>
+  </si>
+  <si>
+    <t>[['n2', 'v2'], 'n2']</t>
+  </si>
+  <si>
+    <t>['n2', ['v2', 'n2']]</t>
+  </si>
+  <si>
+    <t>['n1', 'n2', 'v1']</t>
+  </si>
+  <si>
+    <t>[['n1', 'n2'], 'v1']</t>
+  </si>
+  <si>
+    <t>['n1', 'v2', 'n1']</t>
+  </si>
+  <si>
+    <t>[['n1', 'v2'], 'n1']</t>
+  </si>
+  <si>
+    <t>['n2', 'n2', 'v2']</t>
+  </si>
+  <si>
+    <t>['n2', ['n2', 'v2']]</t>
+  </si>
+  <si>
+    <t>['n1', ['v2', 'n1']]</t>
+  </si>
+  <si>
+    <t>['n1', 'v2', 'n2']</t>
+  </si>
+  <si>
+    <t>['n1', ['v2', 'n2']]</t>
+  </si>
+  <si>
+    <t>[['n1', 'n1'], 'v1']</t>
+  </si>
+  <si>
+    <t>['n1', ['n2', 'v2']]</t>
+  </si>
+  <si>
+    <t>['n2', 'n2', 'v1']</t>
+  </si>
+  <si>
+    <t>['n2', ['n2', 'v1']]</t>
   </si>
   <si>
     <t>['n1', 'v1', 'n1']</t>
   </si>
   <si>
-    <t>['d1', 'a1', 'n1', 'v1']</t>
-  </si>
-  <si>
-    <t>['n1', 'v1', 'd1', 'n1']</t>
-  </si>
-  <si>
-    <t>['v1', 'r1', 'n1', 'v1']</t>
-  </si>
-  <si>
-    <t>['v1', 'p1', 'd1', 'n1']</t>
-  </si>
-  <si>
-    <t>['n1', 'v1', 'r1', 'n1', 'v1']</t>
-  </si>
-  <si>
-    <t>['n1', 'v1', 'p1', 'd1', 'n1']</t>
-  </si>
-  <si>
-    <t>['d1', 'a1', 'a1', 'n1', 'v1']</t>
-  </si>
-  <si>
-    <t>['d1', 'n1', 'v1', 'r1', 'n1', 'v1']</t>
-  </si>
-  <si>
-    <t>['n1', 'p1', 'd1', 'a1', 'a1', 'n1', 'v1']</t>
-  </si>
-  <si>
-    <t>['a1', 'n1', 'p1', 'd1', 'a1', 'a1', 'n1', 'v1']</t>
-  </si>
-  <si>
-    <t>['d1', 'a1', 'n1', 'p1', 'd1', 'a1', 'a1', 'n1', 'v1']</t>
-  </si>
-  <si>
-    <t>['d1', 'a1', 'a1', 'a1', 'a1', 'a1', 'a1', 'n1', 'v1', 'r1', 'd1', 'a1', 'n1', 'v1']</t>
-  </si>
-  <si>
-    <t>['d1', 'a1', 'n1', 'v1', 'd1', 'a1', 'a1', 'a1', 'a1', 'a1', 'n1', 'p1', 'n1', 'p1', 'd1', 'n1']</t>
-  </si>
-  <si>
-    <t>['d1', 'a1', 'a1', 'n1', 'p1', 'd1', 'a1', 'a1', 'a1', 'a1', 'a1', 'a1', 'n1', 'v1', 'r1', 'd1', 'n1', 'v1']</t>
-  </si>
-  <si>
-    <t>['d1', ['n1', 'v1']]</t>
-  </si>
-  <si>
     <t>['n1', ['v1', 'n1']]</t>
   </si>
   <si>
-    <t>['d1', ['a1', ['n1', 'v1']]]</t>
-  </si>
-  <si>
-    <t>['n1', ['v1', ['d1', 'n1']]]</t>
-  </si>
-  <si>
-    <t>[['v1', ['r1', 'n1']], 'v1']</t>
-  </si>
-  <si>
-    <t>[['v1', ['p1', 'd1']], 'n1']</t>
-  </si>
-  <si>
-    <t>['n1', [['v1', ['r1', 'n1']], 'v1']]</t>
-  </si>
-  <si>
-    <t>['n1', [['v1', ['p1', 'd1']], 'n1']]</t>
-  </si>
-  <si>
-    <t>['d1', ['a1', [['a1', 'n1'], 'v1']]]</t>
-  </si>
-  <si>
-    <t>['d1', ['a1', ['a1', ['n1', 'v1']]]]</t>
-  </si>
-  <si>
-    <t>[['d1', 'a1'], [['a1', 'n1'], 'v1']]</t>
-  </si>
-  <si>
-    <t>['d1', ['n1', [['v1', ['r1', 'n1']], 'v1']]]</t>
-  </si>
-  <si>
-    <t>[['d1', ['n1', ['v1', ['r1', 'n1']]]], 'v1']</t>
-  </si>
-  <si>
-    <t>[[['n1', [[['p1', 'd1'], 'a1'], 'a1']], 'n1'], 'v1']</t>
-  </si>
-  <si>
-    <t>['a1', [[['n1', [[['p1', 'd1'], 'a1'], 'a1']], 'n1'], 'v1']]</t>
-  </si>
-  <si>
-    <t>['d1', ['a1', [[['n1', [[['p1', 'd1'], 'a1'], 'a1']], 'n1'], 'v1']]]</t>
-  </si>
-  <si>
-    <t>[[[[[[[[[[['d1', ['a1', 'a1']], 'a1'], 'a1'], 'a1'], 'a1'], 'n1'], 'v1'], 'r1'], 'd1'], 'a1'], ['n1', 'v1']]</t>
-  </si>
-  <si>
-    <t>[[[[[[[[[[[['d1', [['a1', ['n1', 'v1']], 'd1']], 'a1'], 'a1'], 'a1'], 'a1'], 'a1'], 'n1'], 'p1'], 'n1'], 'p1'], 'd1'], 'n1']</t>
-  </si>
-  <si>
-    <t>[[[[[[[[[[[[['d1', ['a1', ['a1', 'n1']]], 'p1'], 'd1'], 'a1'], 'a1'], 'a1'], 'a1'], 'a1'], 'a1'], 'n1'], 'v1'], ['r1', 'd1']], ['n1', 'v1']]</t>
+    <t>['n1', ['n2', 'v1']]</t>
+  </si>
+  <si>
+    <t>['n2', 'v1', 'n1']</t>
+  </si>
+  <si>
+    <t>['n2', ['v1', 'n1']]</t>
+  </si>
+  <si>
+    <t>[['n1', 'v1'], 'n1']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,10 +193,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -203,6 +242,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -490,14 +537,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,301 +561,472 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="D8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
+      <c r="D12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>21</v>
       </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>22</v>
       </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33">
         <v>26</v>
       </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D34">
+    <sortCondition descending="1" ref="D1:D34"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>